--- a/FY24 Budget (1).xlsx
+++ b/FY24 Budget (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unicefcanada.sharepoint.com/sites/BusinessSolutions/BST Projects/Projects - active/BI Operational Priorities - 2024/Top Reports/IG Team/Renewal Report Source Files/Budget and Expenses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Kafka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F7F3A4A-2271-44A1-A475-D2E6B80E2085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44078FFA-66D2-4BFB-B9BE-3989423D26DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="930" windowWidth="8985" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="House DM" sheetId="4" r:id="rId1"/>
@@ -176,15 +176,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,19 +333,19 @@
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -354,12 +354,12 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="169" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -369,61 +369,61 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -754,10 +754,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A7" sqref="A7"/>
+      <selection pane="topRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="78.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="78.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="24" customWidth="1"/>
@@ -769,10 +769,10 @@
     <col min="9" max="9" width="20" style="8" customWidth="1"/>
     <col min="10" max="10" width="20" style="27" customWidth="1"/>
     <col min="11" max="12" width="20" style="8" customWidth="1"/>
-    <col min="13" max="16384" width="78.42578125" style="8"/>
+    <col min="13" max="16384" width="78.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -810,7 +810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18.75" customHeight="1">
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
@@ -821,41 +821,41 @@
         <v>3200</v>
       </c>
       <c r="D2" s="14">
-        <f>C2/B2</f>
+        <f t="shared" ref="D2:D9" si="0">C2/B2</f>
         <v>3.5555555555555556E-2</v>
       </c>
       <c r="E2" s="15">
-        <f>F2*C2</f>
+        <f t="shared" ref="E2:E9" si="1">F2*C2</f>
         <v>336000</v>
       </c>
       <c r="F2" s="16">
         <v>105</v>
       </c>
       <c r="G2" s="17">
-        <f>E2/B2</f>
+        <f t="shared" ref="G2:G9" si="2">E2/B2</f>
         <v>3.7333333333333334</v>
       </c>
       <c r="H2" s="28">
         <v>125000</v>
       </c>
       <c r="I2" s="16">
-        <f>H2/B2</f>
+        <f t="shared" ref="I2:I9" si="3">H2/B2</f>
         <v>1.3888888888888888</v>
       </c>
       <c r="J2" s="18">
-        <f>E2-H2</f>
+        <f t="shared" ref="J2:J9" si="4">E2-H2</f>
         <v>211000</v>
       </c>
       <c r="K2" s="16">
-        <f>J2/B2</f>
+        <f t="shared" ref="K2:K9" si="5">J2/B2</f>
         <v>2.3444444444444446</v>
       </c>
       <c r="L2" s="19">
-        <f>J2/C2</f>
+        <f t="shared" ref="L2:L9" si="6">J2/C2</f>
         <v>65.9375</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1">
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
@@ -866,41 +866,41 @@
         <v>2200</v>
       </c>
       <c r="D3" s="14">
-        <f>C3/B3</f>
+        <f t="shared" si="0"/>
         <v>2.4444444444444446E-2</v>
       </c>
       <c r="E3" s="15">
-        <f>F3*C3</f>
+        <f t="shared" si="1"/>
         <v>226600</v>
       </c>
       <c r="F3" s="16">
         <v>103</v>
       </c>
       <c r="G3" s="17">
-        <f>E3/B3</f>
+        <f t="shared" si="2"/>
         <v>2.5177777777777779</v>
       </c>
       <c r="H3" s="28">
         <v>90000</v>
       </c>
       <c r="I3" s="16">
-        <f>H3/B3</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J3" s="18">
-        <f>E3-H3</f>
+        <f t="shared" si="4"/>
         <v>136600</v>
       </c>
       <c r="K3" s="16">
-        <f>J3/B3</f>
+        <f t="shared" si="5"/>
         <v>1.5177777777777777</v>
       </c>
       <c r="L3" s="19">
-        <f>J3/C3</f>
+        <f t="shared" si="6"/>
         <v>62.090909090909093</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18.75" customHeight="1">
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
@@ -911,41 +911,41 @@
         <v>2800</v>
       </c>
       <c r="D4" s="14">
-        <f>C4/B4</f>
+        <f t="shared" si="0"/>
         <v>3.111111111111111E-2</v>
       </c>
       <c r="E4" s="15">
-        <f>F4*C4</f>
+        <f t="shared" si="1"/>
         <v>266000</v>
       </c>
       <c r="F4" s="16">
         <v>95</v>
       </c>
       <c r="G4" s="17">
-        <f>E4/B4</f>
+        <f t="shared" si="2"/>
         <v>2.9555555555555557</v>
       </c>
       <c r="H4" s="28">
         <v>120000</v>
       </c>
       <c r="I4" s="16">
-        <f>H4/B4</f>
+        <f t="shared" si="3"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="J4" s="18">
-        <f>E4-H4</f>
+        <f t="shared" si="4"/>
         <v>146000</v>
       </c>
       <c r="K4" s="16">
-        <f>J4/B4</f>
+        <f t="shared" si="5"/>
         <v>1.6222222222222222</v>
       </c>
       <c r="L4" s="19">
-        <f>J4/C4</f>
+        <f t="shared" si="6"/>
         <v>52.142857142857146</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18.75" customHeight="1">
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
@@ -956,41 +956,41 @@
         <v>2900</v>
       </c>
       <c r="D5" s="14">
-        <f>C5/B5</f>
+        <f t="shared" si="0"/>
         <v>3.2222222222222222E-2</v>
       </c>
       <c r="E5" s="15">
-        <f>F5*C5</f>
+        <f t="shared" si="1"/>
         <v>261000</v>
       </c>
       <c r="F5" s="16">
         <v>90</v>
       </c>
       <c r="G5" s="17">
-        <f>E5/B5</f>
+        <f t="shared" si="2"/>
         <v>2.9</v>
       </c>
       <c r="H5" s="28">
         <v>120000</v>
       </c>
       <c r="I5" s="16">
-        <f>H5/B5</f>
+        <f t="shared" si="3"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="J5" s="18">
-        <f>E5-H5</f>
+        <f t="shared" si="4"/>
         <v>141000</v>
       </c>
       <c r="K5" s="16">
-        <f>J5/B5</f>
+        <f t="shared" si="5"/>
         <v>1.5666666666666667</v>
       </c>
       <c r="L5" s="19">
-        <f>J5/C5</f>
+        <f t="shared" si="6"/>
         <v>48.620689655172413</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18.75" customHeight="1">
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>16</v>
       </c>
@@ -1001,41 +1001,41 @@
         <v>4650</v>
       </c>
       <c r="D6" s="14">
-        <f>C6/B6</f>
+        <f t="shared" si="0"/>
         <v>5.1666666666666666E-2</v>
       </c>
       <c r="E6" s="15">
-        <f>F6*C6</f>
+        <f t="shared" si="1"/>
         <v>465000</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="17">
-        <f>E6/B6</f>
+        <f t="shared" si="2"/>
         <v>5.166666666666667</v>
       </c>
       <c r="H6" s="28">
         <v>160000</v>
       </c>
       <c r="I6" s="16">
-        <f>H6/B6</f>
+        <f t="shared" si="3"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="J6" s="18">
-        <f>E6-H6</f>
+        <f t="shared" si="4"/>
         <v>305000</v>
       </c>
       <c r="K6" s="16">
-        <f>J6/B6</f>
+        <f t="shared" si="5"/>
         <v>3.3888888888888888</v>
       </c>
       <c r="L6" s="19">
-        <f>J6/C6</f>
+        <f t="shared" si="6"/>
         <v>65.591397849462368</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18.75" customHeight="1">
+    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>17</v>
       </c>
@@ -1046,41 +1046,41 @@
         <v>5000</v>
       </c>
       <c r="D7" s="14">
-        <f>C7/B7</f>
+        <f t="shared" si="0"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="E7" s="15">
-        <f>F7*C7</f>
+        <f t="shared" si="1"/>
         <v>550000</v>
       </c>
       <c r="F7" s="16">
         <v>110</v>
       </c>
       <c r="G7" s="17">
-        <f>E7/B7</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H7" s="28">
         <v>140000</v>
       </c>
       <c r="I7" s="16">
-        <f>H7/B7</f>
+        <f t="shared" si="3"/>
         <v>1.2727272727272727</v>
       </c>
       <c r="J7" s="18">
-        <f>E7-H7</f>
+        <f t="shared" si="4"/>
         <v>410000</v>
       </c>
       <c r="K7" s="16">
-        <f>J7/B7</f>
+        <f t="shared" si="5"/>
         <v>3.7272727272727271</v>
       </c>
       <c r="L7" s="19">
-        <f>J7/C7</f>
+        <f t="shared" si="6"/>
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18.75" customHeight="1">
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
@@ -1091,41 +1091,41 @@
         <v>1400</v>
       </c>
       <c r="D8" s="14">
-        <f>C8/B8</f>
+        <f t="shared" si="0"/>
         <v>2.1538461538461538E-2</v>
       </c>
       <c r="E8" s="15">
-        <f>F8*C8</f>
+        <f t="shared" si="1"/>
         <v>140000</v>
       </c>
       <c r="F8" s="16">
         <v>100</v>
       </c>
       <c r="G8" s="17">
-        <f>E8/B8</f>
+        <f t="shared" si="2"/>
         <v>2.1538461538461537</v>
       </c>
       <c r="H8" s="28">
         <v>145000</v>
       </c>
       <c r="I8" s="16">
-        <f>H8/B8</f>
+        <f t="shared" si="3"/>
         <v>2.2307692307692308</v>
       </c>
       <c r="J8" s="18">
-        <f>E8-H8</f>
+        <f t="shared" si="4"/>
         <v>-5000</v>
       </c>
       <c r="K8" s="16">
-        <f>J8/B8</f>
+        <f t="shared" si="5"/>
         <v>-7.6923076923076927E-2</v>
       </c>
       <c r="L8" s="19">
-        <f>J8/C8</f>
+        <f t="shared" si="6"/>
         <v>-3.5714285714285716</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18.75" customHeight="1">
+    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
@@ -1136,41 +1136,41 @@
         <v>30</v>
       </c>
       <c r="D9" s="14">
-        <f>C9/B9</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E9" s="15">
-        <f>F9*C9</f>
+        <f t="shared" si="1"/>
         <v>22500</v>
       </c>
       <c r="F9" s="16">
         <v>750</v>
       </c>
       <c r="G9" s="17">
-        <f>E9/B9</f>
+        <f t="shared" si="2"/>
         <v>5.625</v>
       </c>
       <c r="H9" s="28">
         <v>25000</v>
       </c>
       <c r="I9" s="16">
-        <f>H9/B9</f>
+        <f t="shared" si="3"/>
         <v>6.25</v>
       </c>
       <c r="J9" s="18">
-        <f>E9-H9</f>
+        <f t="shared" si="4"/>
         <v>-2500</v>
       </c>
       <c r="K9" s="16">
-        <f>J9/B9</f>
+        <f t="shared" si="5"/>
         <v>-0.625</v>
       </c>
       <c r="L9" s="19">
-        <f>J9/C9</f>
+        <f t="shared" si="6"/>
         <v>-83.333333333333329</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18.75" customHeight="1">
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>20</v>
       </c>
@@ -1186,7 +1186,7 @@
       <c r="K10" s="16"/>
       <c r="L10" s="19"/>
     </row>
-    <row r="11" spans="1:12" ht="18.75" customHeight="1">
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>22.493249324932492</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18.75" customHeight="1">
+    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>22</v>
       </c>
@@ -1269,12 +1269,9 @@
         <f>J12/B12</f>
         <v>-1.25</v>
       </c>
-      <c r="L12" s="19" t="e">
-        <f>J12/C12</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L12" s="19"/>
     </row>
-    <row r="13" spans="1:12" ht="29.25" customHeight="1">
+    <row r="13" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
@@ -1332,31 +1329,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="2cd91b89-c8fa-4a94-87c3-ccc3e72970b9">
-      <UserInfo>
-        <DisplayName>Kelsey Richinger</DisplayName>
-        <AccountId>30</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Catherine Floyd</DisplayName>
-        <AccountId>85</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kali McKenna</DisplayName>
-        <AccountId>34</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <TaxCatchAll xmlns="2cd91b89-c8fa-4a94-87c3-ccc3e72970b9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="102979a1-09b4-44fe-984e-457da30e0929">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1589,22 +1567,67 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="2cd91b89-c8fa-4a94-87c3-ccc3e72970b9">
+      <UserInfo>
+        <DisplayName>Kelsey Richinger</DisplayName>
+        <AccountId>30</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Catherine Floyd</DisplayName>
+        <AccountId>85</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kali McKenna</DisplayName>
+        <AccountId>34</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <TaxCatchAll xmlns="2cd91b89-c8fa-4a94-87c3-ccc3e72970b9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="102979a1-09b4-44fe-984e-457da30e0929">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F07F637-451F-43BF-BE0A-05E99C163B80}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19E65F09-F4CF-44D3-952C-420F07979596}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1140599-85AB-4A8B-A9D0-89F93E5A7906}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1140599-85AB-4A8B-A9D0-89F93E5A7906}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="102979a1-09b4-44fe-984e-457da30e0929"/>
+    <ds:schemaRef ds:uri="2cd91b89-c8fa-4a94-87c3-ccc3e72970b9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19E65F09-F4CF-44D3-952C-420F07979596}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F07F637-451F-43BF-BE0A-05E99C163B80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2cd91b89-c8fa-4a94-87c3-ccc3e72970b9"/>
+    <ds:schemaRef ds:uri="102979a1-09b4-44fe-984e-457da30e0929"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>